--- a/reports/STAR-AYODHYA-TEXTILE-MALL.xlsx
+++ b/reports/STAR-AYODHYA-TEXTILE-MALL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="14">
   <si>
     <t>Sr.No</t>
   </si>
@@ -22,301 +22,31 @@
     <t>Parameters</t>
   </si>
   <si>
+    <t>ASHISH   GANGANI</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>In Time</t>
+  </si>
+  <si>
+    <t>Out Time</t>
+  </si>
+  <si>
     <t>PIYUSH  KATHIRIYA</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>In Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:58:03 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:21:42 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11:12:04 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:58:42 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10:40:28 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10:08:49 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:24:24 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:54:17 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10:46:41 am</t>
-  </si>
-  <si>
-    <t>Out Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:13:47 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:03:03 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:35:44 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:26:40 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:59:32 pm</t>
-  </si>
-  <si>
-    <t>ASHISH   GANGANI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:43:02 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:25:28 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:52:41 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:07:34 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:06:02 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:05:29 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:24:51 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:13:45 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:05:26 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:00:49 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:06:39 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:58:45 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:13:14 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:56:24 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:03:23 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:02:12 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:36:43 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:06:58 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:00:55 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:57:34 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:59:54 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:56:30 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:00:29 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:59:22 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:59:41 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:13:15 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:08:57 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:01:39 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:59:22 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:06:23 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:05:59 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:20:47 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:17:42 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:50:25 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:33:30 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:05:18 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:52:36 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:05:22 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:00:48 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:05:23 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:56:04 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:21:15 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:05:14 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:58:26 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:21:01 pm</t>
-  </si>
-  <si>
     <t>NITESH   TANK</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:29:25 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:54:18 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:06:19 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:27:11 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:05:49 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:56:38 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:18:35 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:23:01 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:34:25 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:40:39 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:57:50 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:09:15 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:18:39 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:29:23 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:55:50 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:54:14 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:00:38 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:24:19 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:48:16 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:15:18 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:16:44 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:52:07 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:48:38 pm</t>
-  </si>
-  <si>
     <t xml:space="preserve">ARUN   PANDEY </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:24:52 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:36:21 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:19:00 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:15:51 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:28:44 am</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:54:37 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:53:10 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:51:53 pm</t>
   </si>
   <si>
     <t>P =&gt; Present</t>
@@ -832,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -853,58 +583,58 @@
         <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X2" t="s">
         <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="s">
         <v>5</v>
@@ -923,52 +653,10 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -976,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -988,10 +676,10 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -1009,31 +697,31 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5" t="s">
         <v>5</v>
@@ -1042,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="X5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="s">
         <v>5</v>
       </c>
       <c r="Z5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="s">
         <v>5</v>
@@ -1079,145 +767,10 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S7" t="s">
-        <v>59</v>
-      </c>
-      <c r="T7" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7" t="s">
-        <v>62</v>
-      </c>
-      <c r="W7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1225,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1240,13 +793,13 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
@@ -1282,19 +835,19 @@
         <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W8" t="s">
         <v>5</v>
       </c>
       <c r="X8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="s">
         <v>5</v>
@@ -1328,79 +881,10 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="s">
-        <v>74</v>
-      </c>
-      <c r="S9" t="s">
-        <v>75</v>
-      </c>
-      <c r="T9" t="s">
-        <v>76</v>
-      </c>
-      <c r="W9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="10" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -1408,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1438,52 +922,52 @@
         <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" t="s">
         <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O11" t="s">
         <v>6</v>
       </c>
       <c r="P11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X11" t="s">
         <v>6</v>
       </c>
       <c r="Y11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="s">
         <v>5</v>
       </c>
       <c r="AA11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB11" t="s">
         <v>5</v>
@@ -1511,44 +995,20 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="Z12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/reports/STAR-AYODHYA-TEXTILE-MALL.xlsx
+++ b/reports/STAR-AYODHYA-TEXTILE-MALL.xlsx
@@ -22,31 +22,31 @@
     <t>Parameters</t>
   </si>
   <si>
+    <t>PIYUSH  KATHIRIYA</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>In Time</t>
+  </si>
+  <si>
+    <t>Out Time</t>
+  </si>
+  <si>
     <t>ASHISH   GANGANI</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>In Time</t>
-  </si>
-  <si>
-    <t>Out Time</t>
-  </si>
-  <si>
-    <t>PIYUSH  KATHIRIYA</t>
+    <t xml:space="preserve">ARUN   PANDEY </t>
   </si>
   <si>
     <t>NITESH   TANK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARUN   PANDEY </t>
   </si>
   <si>
     <t>P =&gt; Present</t>
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
@@ -604,19 +604,19 @@
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
       </c>
       <c r="X2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="s">
         <v>5</v>
@@ -625,16 +625,16 @@
         <v>5</v>
       </c>
       <c r="AA2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="s">
         <v>5</v>
@@ -649,12 +649,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -694,34 +694,34 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" t="s">
         <v>5</v>
@@ -736,22 +736,22 @@
         <v>5</v>
       </c>
       <c r="Z5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF5" t="s">
         <v>6</v>
@@ -763,12 +763,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -808,25 +808,25 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8" t="s">
         <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s">
         <v>5</v>
@@ -856,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="AB8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC8" t="s">
         <v>5</v>
@@ -868,21 +868,21 @@
         <v>5</v>
       </c>
       <c r="AF8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>8</v>
       </c>
@@ -898,40 +898,40 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
         <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P11" t="s">
         <v>5</v>
@@ -958,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="X11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="s">
         <v>5</v>
@@ -982,21 +982,21 @@
         <v>5</v>
       </c>
       <c r="AF11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>

--- a/reports/STAR-AYODHYA-TEXTILE-MALL.xlsx
+++ b/reports/STAR-AYODHYA-TEXTILE-MALL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="154">
   <si>
     <t>Sr.No</t>
   </si>
@@ -28,25 +28,445 @@
     <t>Status</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>In Time</t>
   </si>
   <si>
+    <t xml:space="preserve"> 9:58:03 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:21:42 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:12:04 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:58:42 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:40:28 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:08:49 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:24:24 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:54:17 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:01:16 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:21:26 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:34:08 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:16:58 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:56:15 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:40:53 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:55:55 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:01:35 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:54:01 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:46:41 am</t>
+  </si>
+  <si>
     <t>Out Time</t>
   </si>
   <si>
+    <t xml:space="preserve"> 8:13:47 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:03:03 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:35:44 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:26:40 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:59:32 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:36:13 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:17:02 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:28:58 pm</t>
+  </si>
+  <si>
     <t>ASHISH   GANGANI</t>
   </si>
   <si>
+    <t xml:space="preserve"> 8:43:02 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:25:28 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:59:03 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:52:41 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:07:34 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:06:02 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:05:29 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:24:51 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:13:45 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:05:26 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:00:49 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:06:39 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:58:45 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:13:14 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:56:24 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:03:23 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:02:12 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:36:43 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:06:58 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:00:55 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:57:47 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:57:34 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:59:54 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:56:30 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:00:29 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:59:22 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:59:41 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:56:45 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:13:15 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:08:57 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:01:39 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:59:22 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:06:23 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:05:59 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:20:47 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:17:42 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:50:25 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:33:30 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:05:18 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:52:36 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:05:22 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:00:48 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:05:23 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:56:04 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:56:41 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:21:15 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:05:14 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:58:26 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:21:01 pm</t>
+  </si>
+  <si>
+    <t>NITESH   TANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:02:58 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:59:05 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:29:25 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:54:18 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:06:19 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:27:11 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:05:49 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:56:38 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:18:35 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:12:15 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:07:44 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:23:01 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:36:04 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:14:32 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:34:25 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:40:39 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:57:50 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:09:15 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:18:39 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:01:26 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:47:24 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:58:19 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:29:23 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:55:50 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:54:14 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:00:38 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:24:19 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:48:06 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:54:26 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:48:16 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:59 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:03:25 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:15:18 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:16:44 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:52:07 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:48:38 pm</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARUN   PANDEY </t>
   </si>
   <si>
-    <t>NITESH   TANK</t>
+    <t xml:space="preserve"> 9:54:52 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:18:33 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:09:02 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:12:33 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:22:36 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:08:35 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:29:11 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:24:10 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:33:58 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:24:52 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:15:47 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:36:21 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:19:00 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:15:51 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:28:44 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:37:35 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:57:45 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:53:00 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:07:46 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:29:47 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:04:14 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:52:22 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:58:49 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:16:37 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:18 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:54:37 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:49:19 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:53:10 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:51:53 pm</t>
   </si>
   <si>
     <t>P =&gt; Present</t>
@@ -580,28 +1000,28 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T2" t="s">
         <v>6</v>
@@ -610,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
@@ -625,16 +1045,16 @@
         <v>5</v>
       </c>
       <c r="AA2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="s">
         <v>5</v>
@@ -649,14 +1069,92 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -664,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -676,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -694,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -730,28 +1228,28 @@
         <v>5</v>
       </c>
       <c r="X5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="s">
         <v>5</v>
       </c>
       <c r="Z5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF5" t="s">
         <v>6</v>
@@ -763,14 +1261,161 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="7" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" t="s">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s">
+        <v>76</v>
+      </c>
+      <c r="V7" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -778,19 +1423,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -808,25 +1453,25 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" t="s">
         <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8" t="s">
         <v>5</v>
@@ -856,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="AB8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="s">
         <v>5</v>
@@ -868,23 +1513,131 @@
         <v>5</v>
       </c>
       <c r="AF8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" t="s">
+        <v>96</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" t="s">
+        <v>112</v>
+      </c>
+      <c r="U10" t="s">
+        <v>113</v>
+      </c>
+      <c r="V10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -892,46 +1645,46 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="s">
         <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" t="s">
         <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" t="s">
         <v>5</v>
@@ -958,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="X11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="s">
         <v>5</v>
@@ -982,33 +1735,120 @@
         <v>5</v>
       </c>
       <c r="AF11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
+      <c r="P12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" t="s">
+        <v>125</v>
+      </c>
+      <c r="S12" t="s">
+        <v>126</v>
+      </c>
+      <c r="T12" t="s">
+        <v>127</v>
+      </c>
+      <c r="U12" t="s">
+        <v>128</v>
+      </c>
+      <c r="V12" t="s">
+        <v>129</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>140</v>
+      </c>
+      <c r="R13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" t="s">
+        <v>142</v>
+      </c>
+      <c r="T13" t="s">
+        <v>143</v>
+      </c>
+      <c r="U13" t="s">
+        <v>144</v>
+      </c>
+      <c r="V13" t="s">
+        <v>145</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
